--- a/Docs/Responses.xlsx
+++ b/Docs/Responses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="376">
   <si>
     <t>Table 1</t>
   </si>
@@ -29,6 +29,9 @@
     <t>ResultAudio</t>
   </si>
   <si>
+    <t>MoodChange</t>
+  </si>
+  <si>
     <t>Prop</t>
   </si>
   <si>
@@ -38,121 +41,1105 @@
     <t>PropY</t>
   </si>
   <si>
+    <t>EventCode</t>
+  </si>
+  <si>
+    <t>HOT1</t>
+  </si>
+  <si>
     <t>Open a window</t>
   </si>
   <si>
+    <t>Oh dear, a burglar has got in and stolen all of Mr Yellow’s things.</t>
+  </si>
+  <si>
+    <t>response_hot1.wav</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>prop_burgler</t>
+  </si>
+  <si>
+    <t>HOT2</t>
+  </si>
+  <si>
     <t>Turn on the fan</t>
   </si>
   <si>
+    <t>Ah, a cooling breeze</t>
+  </si>
+  <si>
+    <t>response_hot2.wav</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>prop_fan</t>
+  </si>
+  <si>
+    <t>HUNGRY1</t>
+  </si>
+  <si>
     <t>Carrots</t>
   </si>
   <si>
+    <t>Now Mr Yellow can see in the dark, wonderful</t>
+  </si>
+  <si>
+    <t>response_hungry1.wav</t>
+  </si>
+  <si>
+    <t>HUNGRY2</t>
+  </si>
+  <si>
     <t>Burger</t>
   </si>
   <si>
+    <t>What a feast, so many calories</t>
+  </si>
+  <si>
+    <t>response_hungry2.wav</t>
+  </si>
+  <si>
+    <t>HUNGRY3</t>
+  </si>
+  <si>
     <t>Nutloaf</t>
   </si>
   <si>
+    <t>Mr Yellow cannot believe you picked nutloaf over a burger.</t>
+  </si>
+  <si>
+    <t>response_hungry3.wav</t>
+  </si>
+  <si>
+    <t>HUNGRY4</t>
+  </si>
+  <si>
     <t>Orange</t>
   </si>
   <si>
+    <t>Orange, it’s nearly yellow but it’s not quite is it</t>
+  </si>
+  <si>
+    <t>response_hungry4.wav</t>
+  </si>
+  <si>
+    <t>BIRTHDAY1</t>
+  </si>
+  <si>
     <t>Get a cake</t>
   </si>
   <si>
+    <t>Happy birthday Mr Yellow.</t>
+  </si>
+  <si>
+    <t>response_birthday1.wav</t>
+  </si>
+  <si>
+    <t>prop_cake</t>
+  </si>
+  <si>
+    <t>BIRTHDAY2</t>
+  </si>
+  <si>
     <t>Give a remote control car</t>
   </si>
   <si>
+    <t>Mr Yellow is not 5 years old.</t>
+  </si>
+  <si>
+    <t>response_birthday2.wav</t>
+  </si>
+  <si>
+    <t>prop_rccar</t>
+  </si>
+  <si>
+    <t>BIRTHDAY3</t>
+  </si>
+  <si>
     <t>Give a diary</t>
   </si>
   <si>
+    <t>Now Mr Yellow can write all his thoughts down</t>
+  </si>
+  <si>
+    <t>response_birthday3.wav</t>
+  </si>
+  <si>
+    <t>COLOUR1</t>
+  </si>
+  <si>
     <t>Red</t>
   </si>
   <si>
+    <t>That’s his favourite too!</t>
+  </si>
+  <si>
+    <t>response_colour1.wav</t>
+  </si>
+  <si>
+    <t>COLOUR2</t>
+  </si>
+  <si>
     <t>Yellow</t>
   </si>
   <si>
+    <t>Mr Yellow ironically hates the colour yellow</t>
+  </si>
+  <si>
+    <t>response_colour2.wav</t>
+  </si>
+  <si>
+    <t>COLOUR3</t>
+  </si>
+  <si>
     <t>Blue</t>
   </si>
   <si>
+    <t>Mr Yellow thinks that is a fine colour</t>
+  </si>
+  <si>
+    <t>response_colour3.wav</t>
+  </si>
+  <si>
+    <t>FOOD1</t>
+  </si>
+  <si>
     <t>Pizza</t>
   </si>
   <si>
+    <t>Mr Yellow thinks pizza is just a lazy sandwich</t>
+  </si>
+  <si>
+    <t>response_food1.wav</t>
+  </si>
+  <si>
+    <t>FOOD2</t>
+  </si>
+  <si>
     <t>Tangerines</t>
   </si>
   <si>
+    <t>Tiny oranges, Mr Yellow is ecstatic</t>
+  </si>
+  <si>
+    <t>response_food2.wav</t>
+  </si>
+  <si>
+    <t>FOOD3</t>
+  </si>
+  <si>
     <t>Jelly</t>
   </si>
   <si>
+    <t>Mr Yellow is not a small child.</t>
+  </si>
+  <si>
+    <t>response_food3.wav</t>
+  </si>
+  <si>
+    <t>SHELL1</t>
+  </si>
+  <si>
     <t>Conche</t>
   </si>
   <si>
+    <t>A fair point</t>
+  </si>
+  <si>
+    <t>response_shell1.wav</t>
+  </si>
+  <si>
+    <t>SHELL2</t>
+  </si>
+  <si>
     <t>Cowrie</t>
   </si>
   <si>
+    <t>Mr Yellow agrees</t>
+  </si>
+  <si>
+    <t>response_shell2.wav</t>
+  </si>
+  <si>
+    <t>TREKWARS1</t>
+  </si>
+  <si>
     <t>Star Trek</t>
   </si>
   <si>
+    <t>Mr Yellow agrees. Picard over Kirk though.</t>
+  </si>
+  <si>
+    <t>resposne_trekwars1.wav</t>
+  </si>
+  <si>
+    <t>TREKWARS2</t>
+  </si>
+  <si>
     <t>Star Wars</t>
   </si>
   <si>
+    <t>Mr Yellow still can’t forgive episode 1</t>
+  </si>
+  <si>
+    <t>response_trekwars2.wav</t>
+  </si>
+  <si>
+    <t>DOGS1</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>Mr Yellow loves dogs</t>
+  </si>
+  <si>
+    <t>response_dogs1.wav</t>
+  </si>
+  <si>
+    <t>DOGS2</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
+    <t>Mr Yellow doesn’t think this friendship will work out</t>
+  </si>
+  <si>
+    <t>response_dogs2.wav</t>
+  </si>
+  <si>
+    <t>PET1</t>
+  </si>
+  <si>
     <t>Dog</t>
   </si>
   <si>
+    <t>Mr Yellow is overcome with joy but unfortunately dogs don’t like him.</t>
+  </si>
+  <si>
+    <t>response_pet1.wav</t>
+  </si>
+  <si>
+    <t>prop_facescars</t>
+  </si>
+  <si>
+    <t>PET2</t>
+  </si>
+  <si>
     <t>Cat</t>
   </si>
   <si>
+    <t>Really? You honestly think this man is a cat person?</t>
+  </si>
+  <si>
+    <t>response_pet2.wav</t>
+  </si>
+  <si>
+    <t>prop_cat</t>
+  </si>
+  <si>
+    <t>PET3</t>
+  </si>
+  <si>
     <t>Turtle</t>
   </si>
   <si>
+    <t>No one was ever mauled by a turtle so that’s something.</t>
+  </si>
+  <si>
+    <t>response_pet3.wav</t>
+  </si>
+  <si>
+    <t>prop_turtle</t>
+  </si>
+  <si>
+    <t>PET4</t>
+  </si>
+  <si>
     <t>Parrot</t>
   </si>
   <si>
+    <t>No one likes parrots</t>
+  </si>
+  <si>
+    <t>response_pet4.wav</t>
+  </si>
+  <si>
+    <t>prop_parrot</t>
+  </si>
+  <si>
+    <t>LADDERS1</t>
+  </si>
+  <si>
     <t>Of Course!</t>
   </si>
   <si>
+    <t>Well that’s unfortunate, Mr Yellow fell off the ladder and broke his leg.</t>
+  </si>
+  <si>
+    <t>response_ladders1.wav</t>
+  </si>
+  <si>
+    <t>prop_brokenleg</t>
+  </si>
+  <si>
+    <t>LADDERS2</t>
+  </si>
+  <si>
     <t>God no!</t>
   </si>
   <si>
+    <t>A good call, Mr Yellow is rather clumsy</t>
+  </si>
+  <si>
+    <t>response_ladders2.wav</t>
+  </si>
+  <si>
+    <t>HOLIDAY1</t>
+  </si>
+  <si>
     <t>Australia</t>
   </si>
   <si>
+    <t>Mr Yellow enjoyed his holiday, except for being bitten by a snake</t>
+  </si>
+  <si>
+    <t>response_holiday1.wav</t>
+  </si>
+  <si>
+    <t>prop_snakeneck</t>
+  </si>
+  <si>
+    <t>HOLIDAY2</t>
+  </si>
+  <si>
     <t>USA</t>
   </si>
   <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Spain</t>
+    <t>Mr Yellow wasn’t allowed into america</t>
+  </si>
+  <si>
+    <t>response_holiday2.wav</t>
+  </si>
+  <si>
+    <t>HOLIDAY3</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Mr Yellow loves a kilt, don’t you Mr Yellow</t>
+  </si>
+  <si>
+    <t>response_holiday3.wav</t>
+  </si>
+  <si>
+    <t>prop_kilt</t>
+  </si>
+  <si>
+    <t>HOLIDAY4</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>That’s a lovely hat Mr Yellow</t>
+  </si>
+  <si>
+    <t>response_holiday4.wav</t>
+  </si>
+  <si>
+    <t>prop_sombrero</t>
+  </si>
+  <si>
+    <t>DRINK1</t>
   </si>
   <si>
     <t>Beer</t>
   </si>
   <si>
+    <t>Mr Yellow can’t handle his drink.</t>
+  </si>
+  <si>
+    <t>response_drink1.wav</t>
+  </si>
+  <si>
+    <t>prop_sick1</t>
+  </si>
+  <si>
+    <t>DRINK2</t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Antibiotics</t>
+    <t>What a refreshing beverage</t>
+  </si>
+  <si>
+    <t>response_drink2.wav</t>
+  </si>
+  <si>
+    <t>SICK1</t>
+  </si>
+  <si>
+    <t>Penecillin</t>
+  </si>
+  <si>
+    <t>Mr Yellow is allergic to penicillin</t>
+  </si>
+  <si>
+    <t>response_sick1.wav</t>
+  </si>
+  <si>
+    <t>prop_sick2</t>
+  </si>
+  <si>
+    <t>SICK2</t>
   </si>
   <si>
     <t>Lemsip</t>
   </si>
   <si>
+    <t>It’s disgusting but he does feel better</t>
+  </si>
+  <si>
+    <t>response_sick2.wav</t>
+  </si>
+  <si>
+    <t>HAIR1</t>
+  </si>
+  <si>
     <t>Let it grow!</t>
   </si>
   <si>
+    <t>Wow Mr Yellow, you’re really looking good!</t>
+  </si>
+  <si>
+    <t>response_hair1.wav</t>
+  </si>
+  <si>
+    <t>prop_longhair</t>
+  </si>
+  <si>
+    <t>HAIR2</t>
+  </si>
+  <si>
     <t>Nope!</t>
   </si>
   <si>
+    <t>Mr Yellow really wanted to let his hair down</t>
+  </si>
+  <si>
+    <t>response_hair2.wav</t>
+  </si>
+  <si>
+    <t>SAD1</t>
+  </si>
+  <si>
     <t>Tell him a joke</t>
   </si>
   <si>
+    <t>Nothing bad will eve happen to you Mr Yellow…Yes I think he liked that joke.</t>
+  </si>
+  <si>
+    <t>response_sad1.wav</t>
+  </si>
+  <si>
+    <t>SAD2</t>
+  </si>
+  <si>
     <t>Give him a drink</t>
+  </si>
+  <si>
+    <t>Oh dear, Mr Yellow has drank too much and been sick all over himself.</t>
+  </si>
+  <si>
+    <t>response_sad2.wav</t>
+  </si>
+  <si>
+    <t>prop_sick3</t>
+  </si>
+  <si>
+    <t>HAPPY1</t>
+  </si>
+  <si>
+    <t>He doesn’t deserve happiness.</t>
+  </si>
+  <si>
+    <t>As I’m sure you can expect Mr Yellow didn’t think that was very nice</t>
+  </si>
+  <si>
+    <t>response_happy1.wav</t>
+  </si>
+  <si>
+    <t>HAPPY2</t>
+  </si>
+  <si>
+    <t>I’m happy too!</t>
+  </si>
+  <si>
+    <t>Lovely, then we’re all happy. So very happy.</t>
+  </si>
+  <si>
+    <t>response_happy2.wav</t>
+  </si>
+  <si>
+    <t>TOILET1</t>
+  </si>
+  <si>
+    <t>Let it go…</t>
+  </si>
+  <si>
+    <t>Oh my, Mr Yellow has soiled himself</t>
+  </si>
+  <si>
+    <t>response_toilet1.wav</t>
+  </si>
+  <si>
+    <t>prop_soiled</t>
+  </si>
+  <si>
+    <t>TOILET2</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>What a relief. I’m happy for all our sakes you didn’t pick the other option.</t>
+  </si>
+  <si>
+    <t>response_toilet2.wav</t>
+  </si>
+  <si>
+    <t>COLD1</t>
+  </si>
+  <si>
+    <t>Put on the fire</t>
+  </si>
+  <si>
+    <t>Mr Yellow shouldn’t be trusted with fire.</t>
+  </si>
+  <si>
+    <t>response_cold1.wav</t>
+  </si>
+  <si>
+    <t>prop_burns</t>
+  </si>
+  <si>
+    <t>COLD2</t>
+  </si>
+  <si>
+    <t>Put on a jumper</t>
+  </si>
+  <si>
+    <t>Well that looks cosy</t>
+  </si>
+  <si>
+    <t>response_cold2.wav</t>
+  </si>
+  <si>
+    <t>prop_jumper</t>
+  </si>
+  <si>
+    <t>COLD3</t>
+  </si>
+  <si>
+    <t>Deal with it</t>
+  </si>
+  <si>
+    <t>Dealing with the cold has hardened Mr Yellow’s resolve.</t>
+  </si>
+  <si>
+    <t>response_cold3.wav</t>
+  </si>
+  <si>
+    <t>JOB1</t>
+  </si>
+  <si>
+    <t>Policeman</t>
+  </si>
+  <si>
+    <t>All was going well until Mr Yellow cuffed himself to the bad guy.</t>
+  </si>
+  <si>
+    <t>response_job1.wav</t>
+  </si>
+  <si>
+    <t>prop_cuffedburgler</t>
+  </si>
+  <si>
+    <t>JOB2</t>
+  </si>
+  <si>
+    <t>Astronaut</t>
+  </si>
+  <si>
+    <t>I bet seeing the stars was amazing wasn’t it Mr Yellow</t>
+  </si>
+  <si>
+    <t>response_job2.wav</t>
+  </si>
+  <si>
+    <t>prop_astrohelmet</t>
+  </si>
+  <si>
+    <t>JOB3</t>
+  </si>
+  <si>
+    <t>Game Developer</t>
+  </si>
+  <si>
+    <t>Come on, that’s not even a real job.</t>
+  </si>
+  <si>
+    <t>response_job3.wav</t>
+  </si>
+  <si>
+    <t>DRUNK1</t>
+  </si>
+  <si>
+    <t>Drink more!</t>
+  </si>
+  <si>
+    <t>Mr Yellow has been awfully sick</t>
+  </si>
+  <si>
+    <t>response_drunk1.wav</t>
+  </si>
+  <si>
+    <t>DRUNK2</t>
+  </si>
+  <si>
+    <t>DRINK MORE!!</t>
+  </si>
+  <si>
+    <t>Mr Yellow has punched a hole in the wall</t>
+  </si>
+  <si>
+    <t>response_drunk2.wav</t>
+  </si>
+  <si>
+    <t>prop_holewall</t>
+  </si>
+  <si>
+    <t>DRUNK3</t>
+  </si>
+  <si>
+    <t>Stop drinking</t>
+  </si>
+  <si>
+    <t>Mr Yellow is sad</t>
+  </si>
+  <si>
+    <t>response_drunk3.wav</t>
+  </si>
+  <si>
+    <t>DRUNK4</t>
+  </si>
+  <si>
+    <t>Start eating</t>
+  </si>
+  <si>
+    <t>Mr Yellow ate half his kebab, as is customary.</t>
+  </si>
+  <si>
+    <t>response_drunk4.wav</t>
+  </si>
+  <si>
+    <t>prop_kebab</t>
+  </si>
+  <si>
+    <t>YELLOWIS1</t>
+  </si>
+  <si>
+    <t>Lovely</t>
+  </si>
+  <si>
+    <t>Mr Yellow is positively glowing</t>
+  </si>
+  <si>
+    <t>response_yellowis1.wav</t>
+  </si>
+  <si>
+    <t>YELLOWIS2</t>
+  </si>
+  <si>
+    <t>Spontaneous</t>
+  </si>
+  <si>
+    <t>He took off his shirt!</t>
+  </si>
+  <si>
+    <t>response_yellowis2.wav</t>
+  </si>
+  <si>
+    <t>prop_barechest</t>
+  </si>
+  <si>
+    <t>YELLOWIS3</t>
+  </si>
+  <si>
+    <t>A rebel</t>
+  </si>
+  <si>
+    <t>Seems Mr Yellow has done some decorating</t>
+  </si>
+  <si>
+    <t>response_yellowis3.wav</t>
+  </si>
+  <si>
+    <t>YELLOWIS4</t>
+  </si>
+  <si>
+    <t>A good buddy</t>
+  </si>
+  <si>
+    <t>Mr Yellow considers himself more of an acquaintance</t>
+  </si>
+  <si>
+    <t>response_yellowis4.wav</t>
+  </si>
+  <si>
+    <t>TV1</t>
+  </si>
+  <si>
+    <t>A cop show</t>
+  </si>
+  <si>
+    <t>This is far too much for Mr Yellow</t>
+  </si>
+  <si>
+    <t>response_tv1.wav</t>
+  </si>
+  <si>
+    <t>TV2</t>
+  </si>
+  <si>
+    <t>A period drama</t>
+  </si>
+  <si>
+    <t>Mr Yellow really loves period dramas</t>
+  </si>
+  <si>
+    <t>response_tv2.wav</t>
+  </si>
+  <si>
+    <t>TV3</t>
+  </si>
+  <si>
+    <t>Gameshow</t>
+  </si>
+  <si>
+    <t>Mr Yellow is upset, he couldn’t answer any of the questions</t>
+  </si>
+  <si>
+    <t>response_tv3.wav</t>
+  </si>
+  <si>
+    <t>PRESIDENT1</t>
+  </si>
+  <si>
+    <t>Make america great again</t>
+  </si>
+  <si>
+    <t>Drain that swamp Mr Yellow.</t>
+  </si>
+  <si>
+    <t>response_president1.wav</t>
+  </si>
+  <si>
+    <t>prop_trumphat</t>
+  </si>
+  <si>
+    <t>PRESIDENT2</t>
+  </si>
+  <si>
+    <t>Yes we can</t>
+  </si>
+  <si>
+    <t>Are you feeling fire up, ready to go Mr Yellow?</t>
+  </si>
+  <si>
+    <t>response_president2.wav</t>
+  </si>
+  <si>
+    <t>prop_obamaposter</t>
+  </si>
+  <si>
+    <t>SPORT1</t>
+  </si>
+  <si>
+    <t>Snowboarding</t>
+  </si>
+  <si>
+    <t>Mr Yellow fell 50ft and broke an arm</t>
+  </si>
+  <si>
+    <t>response_sport1.wav</t>
+  </si>
+  <si>
+    <t>prop_brokenarm</t>
+  </si>
+  <si>
+    <t>SPORT2</t>
+  </si>
+  <si>
+    <t>Ten pin bowling</t>
+  </si>
+  <si>
+    <t>Strike after strike is what we would have said if Mr Yellow were any good at bowling.</t>
+  </si>
+  <si>
+    <t>response_sport2.wav</t>
+  </si>
+  <si>
+    <t>SPORT3</t>
+  </si>
+  <si>
+    <t>Tennis</t>
+  </si>
+  <si>
+    <t>Mr Yellow has a great serve, must be all that waving</t>
+  </si>
+  <si>
+    <t>response_sport3.wav</t>
+  </si>
+  <si>
+    <t>SPORT4</t>
+  </si>
+  <si>
+    <t>Rugby</t>
+  </si>
+  <si>
+    <t>This did not end well for Mr Yellow</t>
+  </si>
+  <si>
+    <t>response_sport4.wav</t>
+  </si>
+  <si>
+    <t>prop_bandage</t>
+  </si>
+  <si>
+    <t>TIRED1</t>
+  </si>
+  <si>
+    <t>Go to bed</t>
+  </si>
+  <si>
+    <t>Mr Yellow is rested and happy</t>
+  </si>
+  <si>
+    <t>response_tired1.wav</t>
+  </si>
+  <si>
+    <t>TIRED2</t>
+  </si>
+  <si>
+    <t>Stay up</t>
+  </si>
+  <si>
+    <t>Mr Yellow really should have went to bed</t>
+  </si>
+  <si>
+    <t>response_tired2.wav</t>
+  </si>
+  <si>
+    <t>prop_redeyes</t>
+  </si>
+  <si>
+    <t>GAME1</t>
+  </si>
+  <si>
+    <t>Tic-Tac-Toe</t>
+  </si>
+  <si>
+    <t>Mr Yellow really enjoyed himself</t>
+  </si>
+  <si>
+    <t>response_game1.wav</t>
+  </si>
+  <si>
+    <t>GAME2</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Ah, Mr Yellow was asked to leave the arcade because he just wanted to keep doing the same move over and over</t>
+  </si>
+  <si>
+    <t>response_game2.wav</t>
+  </si>
+  <si>
+    <t>GAME3</t>
+  </si>
+  <si>
+    <t>Solitaire</t>
+  </si>
+  <si>
+    <t>Mr Yellow played but got awfully stuck</t>
+  </si>
+  <si>
+    <t>response_game3.wav</t>
+  </si>
+  <si>
+    <t>prop_cards</t>
+  </si>
+  <si>
+    <t>FRIEND1</t>
+  </si>
+  <si>
+    <t>Martha Saddleford</t>
+  </si>
+  <si>
+    <t>Mr Yellow and Martha go way back, not in a good way</t>
+  </si>
+  <si>
+    <t>response_friend1.wav</t>
+  </si>
+  <si>
+    <t>prop_martha</t>
+  </si>
+  <si>
+    <t>FRIEND2</t>
+  </si>
+  <si>
+    <t>Jim Hollingsthworth</t>
+  </si>
+  <si>
+    <t>Jim is the man with the plan, what a great guy</t>
+  </si>
+  <si>
+    <t>response_friend2.wav</t>
+  </si>
+  <si>
+    <t>prop_jim</t>
+  </si>
+  <si>
+    <t>FRIEND3</t>
+  </si>
+  <si>
+    <t>Brian McDonald</t>
+  </si>
+  <si>
+    <t>Mr Yellow is sad that you’ve left Brian but he’s knows your going on to great things! Thanks for everything</t>
+  </si>
+  <si>
+    <t>response_friend3.wav</t>
+  </si>
+  <si>
+    <t>BOOK1</t>
+  </si>
+  <si>
+    <t>The Dictionary</t>
+  </si>
+  <si>
+    <t>Mr Yellow is dismayed by all the words he didn’t know</t>
+  </si>
+  <si>
+    <t>response_book1.wav</t>
+  </si>
+  <si>
+    <t>BOOK2</t>
+  </si>
+  <si>
+    <t>Self help book</t>
+  </si>
+  <si>
+    <t>Mr Yellow has completed a 12 step program and feels like a new man!</t>
+  </si>
+  <si>
+    <t>response_book2.wav</t>
+  </si>
+  <si>
+    <t>BOOK3</t>
+  </si>
+  <si>
+    <t>Hypnotism</t>
+  </si>
+  <si>
+    <t>Unfortunately Mr Yellow hypnotised himself, he can no longer go into supermarkets.</t>
+  </si>
+  <si>
+    <t>response_book3.wav</t>
+  </si>
+  <si>
+    <t>LIFE1</t>
+  </si>
+  <si>
+    <t>Thanks for all the fish.</t>
+  </si>
+  <si>
+    <t>response_life1.wav</t>
+  </si>
+  <si>
+    <t>Postiive</t>
+  </si>
+  <si>
+    <t>prop_fish</t>
+  </si>
+  <si>
+    <t>LIFE2</t>
+  </si>
+  <si>
+    <t>Be nice</t>
+  </si>
+  <si>
+    <t>Mr Yellow really was hoping for something more than that</t>
+  </si>
+  <si>
+    <t>response_life2.wav</t>
+  </si>
+  <si>
+    <t>LIFE3</t>
+  </si>
+  <si>
+    <t>No one knows</t>
+  </si>
+  <si>
+    <t>response_life3.wav</t>
+  </si>
+  <si>
+    <t>LIFE4</t>
+  </si>
+  <si>
+    <t>What is the meaning of life?</t>
+  </si>
+  <si>
+    <t>Mr Yellow doesn’t like questions being answered with questions</t>
+  </si>
+  <si>
+    <t>response_life4.wav</t>
+  </si>
+  <si>
+    <t>DUCK1</t>
+  </si>
+  <si>
+    <t>Quack</t>
+  </si>
+  <si>
+    <t>Well, quite</t>
+  </si>
+  <si>
+    <t>response_duck1.wav</t>
+  </si>
+  <si>
+    <t>prop_duck</t>
+  </si>
+  <si>
+    <t>DUCK2</t>
+  </si>
+  <si>
+    <t>Indeed</t>
+  </si>
+  <si>
+    <t>response_duck2.wav</t>
   </si>
 </sst>
 </file>
@@ -266,19 +1253,19 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1394,7 +2381,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H49"/>
+  <dimension ref="A2:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -1404,13 +2391,14 @@
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.2578" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1797" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1">
@@ -1424,6 +2412,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" ht="20.55" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -1447,559 +2436,1831 @@
       <c r="G2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s" s="6">
+      <c r="H2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="I2" t="s" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="32.55" customHeight="1">
+      <c r="A3" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="4">
+        <v>15</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s" s="6">
+        <v>21</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s" s="6">
+        <v>14</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" t="s" s="6">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s" s="6">
+        <v>14</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="A9" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s" s="6">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="6">
+        <v>42</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" ht="32.35" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="A10" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s" s="6">
+        <v>47</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" t="s" s="6">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s" s="6">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s" s="6">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s" s="6">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" t="s" s="6">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s" s="6">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s" s="6">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s" s="6">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s" s="6">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s" s="6">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s" s="6">
+        <v>14</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14" t="s" s="6">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s" s="6">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s" s="6">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s" s="6">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" t="s" s="6">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s" s="6">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s" s="6">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s" s="6">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s" s="6">
+        <v>14</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="A16" t="s" s="6">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s" s="6">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s" s="6">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s" s="6">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="A17" t="s" s="6">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s" s="6">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s" s="6">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s" s="6">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s" s="6">
+        <v>14</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="A18" t="s" s="6">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s" s="6">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s" s="6">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s" s="6">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" t="s" s="6">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s" s="6">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s" s="6">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s" s="6">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" t="s" s="6">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s" s="6">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s" s="6">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s" s="6">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" t="s" s="6">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s" s="6">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s" s="6">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s" s="6">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s" s="6">
+        <v>14</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="A22" t="s" s="6">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s" s="6">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s" s="6">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s" s="6">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="A23" t="s" s="6">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s" s="6">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s" s="6">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s" s="6">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s" s="6">
+        <v>14</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
-    </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" ht="32.35" customHeight="1">
+      <c r="A24" t="s" s="6">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s" s="6">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s" s="6">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s" s="6">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s" s="6">
+        <v>104</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" ht="20.35" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="A25" t="s" s="6">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s" s="6">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s" s="6">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s" s="6">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="6">
+        <v>109</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" ht="20.35" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="A26" t="s" s="6">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s" s="6">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s" s="6">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s" s="6">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s" s="6">
+        <v>114</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" ht="20.35" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="A27" t="s" s="6">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s" s="6">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s" s="6">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s" s="6">
+        <v>118</v>
+      </c>
+      <c r="E27" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s" s="6">
+        <v>119</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-    </row>
-    <row r="28" ht="20.35" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" ht="32.35" customHeight="1">
+      <c r="A28" t="s" s="6">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s" s="6">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s" s="6">
+        <v>122</v>
+      </c>
+      <c r="D28" t="s" s="6">
+        <v>123</v>
+      </c>
+      <c r="E28" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s" s="6">
+        <v>124</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" ht="20.35" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="A29" t="s" s="6">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s" s="6">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s" s="6">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s" s="6">
+        <v>128</v>
+      </c>
+      <c r="E29" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-    </row>
-    <row r="30" ht="20.35" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" ht="32.35" customHeight="1">
+      <c r="A30" t="s" s="6">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s" s="6">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s" s="6">
+        <v>131</v>
+      </c>
+      <c r="D30" t="s" s="6">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s" s="6">
+        <v>133</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" ht="20.35" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="A31" t="s" s="6">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s" s="6">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s" s="6">
+        <v>136</v>
+      </c>
+      <c r="D31" t="s" s="6">
+        <v>137</v>
+      </c>
+      <c r="E31" t="s" s="6">
+        <v>14</v>
+      </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" ht="20.35" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="A32" t="s" s="6">
+        <v>138</v>
+      </c>
+      <c r="B32" t="s" s="6">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s" s="6">
+        <v>140</v>
+      </c>
+      <c r="D32" t="s" s="6">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s" s="6">
+        <v>142</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" ht="20.35" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="A33" t="s" s="6">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s" s="6">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s" s="6">
+        <v>145</v>
+      </c>
+      <c r="D33" t="s" s="6">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s" s="6">
+        <v>147</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" ht="20.35" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="A34" t="s" s="6">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s" s="6">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s" s="6">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s" s="6">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s" s="6">
+        <v>152</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" ht="20.35" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="A35" t="s" s="6">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s" s="6">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s" s="6">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s" s="6">
+        <v>156</v>
+      </c>
+      <c r="E35" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" ht="20.35" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="A36" t="s" s="6">
+        <v>157</v>
+      </c>
+      <c r="B36" t="s" s="6">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s" s="6">
+        <v>159</v>
+      </c>
+      <c r="D36" t="s" s="6">
+        <v>160</v>
+      </c>
+      <c r="E36" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s" s="6">
+        <v>161</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" ht="20.35" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="A37" t="s" s="6">
+        <v>162</v>
+      </c>
+      <c r="B37" t="s" s="6">
+        <v>163</v>
+      </c>
+      <c r="C37" t="s" s="6">
+        <v>164</v>
+      </c>
+      <c r="D37" t="s" s="6">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
     </row>
     <row r="38" ht="20.35" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="A38" t="s" s="6">
+        <v>166</v>
+      </c>
+      <c r="B38" t="s" s="6">
+        <v>167</v>
+      </c>
+      <c r="C38" t="s" s="6">
+        <v>168</v>
+      </c>
+      <c r="D38" t="s" s="6">
+        <v>169</v>
+      </c>
+      <c r="E38" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s" s="6">
+        <v>170</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" ht="20.35" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="A39" t="s" s="6">
+        <v>171</v>
+      </c>
+      <c r="B39" t="s" s="6">
+        <v>172</v>
+      </c>
+      <c r="C39" t="s" s="6">
+        <v>173</v>
+      </c>
+      <c r="D39" t="s" s="6">
+        <v>174</v>
+      </c>
+      <c r="E39" t="s" s="6">
+        <v>14</v>
+      </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-    </row>
-    <row r="40" ht="20.35" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" ht="32.35" customHeight="1">
+      <c r="A40" t="s" s="6">
+        <v>175</v>
+      </c>
+      <c r="B40" t="s" s="6">
+        <v>176</v>
+      </c>
+      <c r="C40" t="s" s="6">
+        <v>177</v>
+      </c>
+      <c r="D40" t="s" s="6">
+        <v>178</v>
+      </c>
+      <c r="E40" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-    </row>
-    <row r="41" ht="20.35" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" ht="32.35" customHeight="1">
+      <c r="A41" t="s" s="6">
+        <v>179</v>
+      </c>
+      <c r="B41" t="s" s="6">
+        <v>180</v>
+      </c>
+      <c r="C41" t="s" s="6">
+        <v>181</v>
+      </c>
+      <c r="D41" t="s" s="6">
+        <v>182</v>
+      </c>
+      <c r="E41" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s" s="6">
+        <v>183</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-    </row>
-    <row r="42" ht="20.35" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" ht="32.35" customHeight="1">
+      <c r="A42" t="s" s="6">
+        <v>184</v>
+      </c>
+      <c r="B42" t="s" s="6">
+        <v>185</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>186</v>
+      </c>
+      <c r="D42" t="s" s="6">
+        <v>187</v>
+      </c>
+      <c r="E42" t="s" s="6">
+        <v>14</v>
+      </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43" ht="20.35" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="A43" t="s" s="6">
+        <v>188</v>
+      </c>
+      <c r="B43" t="s" s="6">
+        <v>189</v>
+      </c>
+      <c r="C43" t="s" s="6">
+        <v>190</v>
+      </c>
+      <c r="D43" t="s" s="6">
+        <v>191</v>
+      </c>
+      <c r="E43" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" ht="20.35" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="A44" t="s" s="6">
+        <v>192</v>
+      </c>
+      <c r="B44" t="s" s="6">
+        <v>193</v>
+      </c>
+      <c r="C44" t="s" s="6">
+        <v>194</v>
+      </c>
+      <c r="D44" t="s" s="6">
+        <v>195</v>
+      </c>
+      <c r="E44" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s" s="6">
+        <v>196</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
-    </row>
-    <row r="45" ht="20.35" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" ht="32.35" customHeight="1">
+      <c r="A45" t="s" s="6">
+        <v>197</v>
+      </c>
+      <c r="B45" t="s" s="6">
+        <v>198</v>
+      </c>
+      <c r="C45" t="s" s="6">
+        <v>199</v>
+      </c>
+      <c r="D45" t="s" s="6">
+        <v>200</v>
+      </c>
+      <c r="E45" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46" ht="20.35" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="A46" t="s" s="6">
+        <v>201</v>
+      </c>
+      <c r="B46" t="s" s="6">
+        <v>202</v>
+      </c>
+      <c r="C46" t="s" s="6">
+        <v>203</v>
+      </c>
+      <c r="D46" t="s" s="6">
+        <v>204</v>
+      </c>
+      <c r="E46" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s" s="6">
+        <v>205</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47" ht="20.35" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="A47" t="s" s="6">
+        <v>206</v>
+      </c>
+      <c r="B47" t="s" s="6">
+        <v>207</v>
+      </c>
+      <c r="C47" t="s" s="6">
+        <v>208</v>
+      </c>
+      <c r="D47" t="s" s="6">
+        <v>209</v>
+      </c>
+      <c r="E47" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s" s="6">
+        <v>210</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48" ht="20.35" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="A48" t="s" s="6">
+        <v>211</v>
+      </c>
+      <c r="B48" t="s" s="6">
+        <v>212</v>
+      </c>
+      <c r="C48" t="s" s="6">
+        <v>213</v>
+      </c>
+      <c r="D48" t="s" s="6">
+        <v>214</v>
+      </c>
+      <c r="E48" t="s" s="6">
+        <v>20</v>
+      </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-    </row>
-    <row r="49" ht="20.35" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" ht="32.35" customHeight="1">
+      <c r="A49" t="s" s="6">
+        <v>215</v>
+      </c>
+      <c r="B49" t="s" s="6">
+        <v>216</v>
+      </c>
+      <c r="C49" t="s" s="6">
+        <v>217</v>
+      </c>
+      <c r="D49" t="s" s="6">
+        <v>218</v>
+      </c>
+      <c r="E49" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s" s="6">
+        <v>219</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" ht="20.35" customHeight="1">
+      <c r="A50" t="s" s="6">
+        <v>220</v>
+      </c>
+      <c r="B50" t="s" s="6">
+        <v>221</v>
+      </c>
+      <c r="C50" t="s" s="6">
+        <v>222</v>
+      </c>
+      <c r="D50" t="s" s="6">
+        <v>223</v>
+      </c>
+      <c r="E50" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s" s="6">
+        <v>224</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" ht="20.35" customHeight="1">
+      <c r="A51" t="s" s="6">
+        <v>225</v>
+      </c>
+      <c r="B51" t="s" s="6">
+        <v>226</v>
+      </c>
+      <c r="C51" t="s" s="6">
+        <v>227</v>
+      </c>
+      <c r="D51" t="s" s="6">
+        <v>228</v>
+      </c>
+      <c r="E51" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" ht="20.35" customHeight="1">
+      <c r="A52" t="s" s="6">
+        <v>229</v>
+      </c>
+      <c r="B52" t="s" s="6">
+        <v>230</v>
+      </c>
+      <c r="C52" t="s" s="6">
+        <v>231</v>
+      </c>
+      <c r="D52" t="s" s="6">
+        <v>232</v>
+      </c>
+      <c r="E52" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s" s="6">
+        <v>152</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" ht="20.35" customHeight="1">
+      <c r="A53" t="s" s="6">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s" s="6">
+        <v>234</v>
+      </c>
+      <c r="C53" t="s" s="6">
+        <v>235</v>
+      </c>
+      <c r="D53" t="s" s="6">
+        <v>236</v>
+      </c>
+      <c r="E53" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s" s="6">
+        <v>237</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" ht="20.35" customHeight="1">
+      <c r="A54" t="s" s="6">
+        <v>238</v>
+      </c>
+      <c r="B54" t="s" s="6">
+        <v>239</v>
+      </c>
+      <c r="C54" t="s" s="6">
+        <v>240</v>
+      </c>
+      <c r="D54" t="s" s="6">
+        <v>241</v>
+      </c>
+      <c r="E54" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" ht="20.35" customHeight="1">
+      <c r="A55" t="s" s="6">
+        <v>242</v>
+      </c>
+      <c r="B55" t="s" s="6">
+        <v>243</v>
+      </c>
+      <c r="C55" t="s" s="6">
+        <v>244</v>
+      </c>
+      <c r="D55" t="s" s="6">
+        <v>245</v>
+      </c>
+      <c r="E55" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s" s="6">
+        <v>246</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" ht="20.35" customHeight="1">
+      <c r="A56" t="s" s="6">
+        <v>247</v>
+      </c>
+      <c r="B56" t="s" s="6">
+        <v>248</v>
+      </c>
+      <c r="C56" t="s" s="6">
+        <v>249</v>
+      </c>
+      <c r="D56" t="s" s="6">
+        <v>250</v>
+      </c>
+      <c r="E56" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" ht="20.35" customHeight="1">
+      <c r="A57" t="s" s="6">
+        <v>251</v>
+      </c>
+      <c r="B57" t="s" s="6">
+        <v>252</v>
+      </c>
+      <c r="C57" t="s" s="6">
+        <v>253</v>
+      </c>
+      <c r="D57" t="s" s="6">
+        <v>254</v>
+      </c>
+      <c r="E57" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s" s="6">
+        <v>255</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" ht="20.35" customHeight="1">
+      <c r="A58" t="s" s="6">
+        <v>256</v>
+      </c>
+      <c r="B58" t="s" s="6">
+        <v>257</v>
+      </c>
+      <c r="C58" t="s" s="6">
+        <v>258</v>
+      </c>
+      <c r="D58" t="s" s="6">
+        <v>259</v>
+      </c>
+      <c r="E58" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" ht="20.35" customHeight="1">
+      <c r="A59" t="s" s="6">
+        <v>260</v>
+      </c>
+      <c r="B59" t="s" s="6">
+        <v>261</v>
+      </c>
+      <c r="C59" t="s" s="6">
+        <v>262</v>
+      </c>
+      <c r="D59" t="s" s="6">
+        <v>263</v>
+      </c>
+      <c r="E59" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" ht="20.35" customHeight="1">
+      <c r="A60" t="s" s="6">
+        <v>264</v>
+      </c>
+      <c r="B60" t="s" s="6">
+        <v>265</v>
+      </c>
+      <c r="C60" t="s" s="6">
+        <v>266</v>
+      </c>
+      <c r="D60" t="s" s="6">
+        <v>267</v>
+      </c>
+      <c r="E60" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" ht="20.35" customHeight="1">
+      <c r="A61" t="s" s="6">
+        <v>268</v>
+      </c>
+      <c r="B61" t="s" s="6">
+        <v>269</v>
+      </c>
+      <c r="C61" t="s" s="6">
+        <v>270</v>
+      </c>
+      <c r="D61" t="s" s="6">
+        <v>271</v>
+      </c>
+      <c r="E61" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" ht="20.35" customHeight="1">
+      <c r="A62" t="s" s="6">
+        <v>272</v>
+      </c>
+      <c r="B62" t="s" s="6">
+        <v>273</v>
+      </c>
+      <c r="C62" t="s" s="6">
+        <v>274</v>
+      </c>
+      <c r="D62" t="s" s="6">
+        <v>275</v>
+      </c>
+      <c r="E62" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" ht="32.35" customHeight="1">
+      <c r="A63" t="s" s="6">
+        <v>276</v>
+      </c>
+      <c r="B63" t="s" s="6">
+        <v>277</v>
+      </c>
+      <c r="C63" t="s" s="6">
+        <v>278</v>
+      </c>
+      <c r="D63" t="s" s="6">
+        <v>279</v>
+      </c>
+      <c r="E63" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s" s="6">
+        <v>280</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" ht="20.35" customHeight="1">
+      <c r="A64" t="s" s="6">
+        <v>281</v>
+      </c>
+      <c r="B64" t="s" s="6">
+        <v>282</v>
+      </c>
+      <c r="C64" t="s" s="6">
+        <v>283</v>
+      </c>
+      <c r="D64" t="s" s="6">
+        <v>284</v>
+      </c>
+      <c r="E64" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s" s="6">
+        <v>285</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" ht="20.35" customHeight="1">
+      <c r="A65" t="s" s="6">
+        <v>286</v>
+      </c>
+      <c r="B65" t="s" s="6">
+        <v>287</v>
+      </c>
+      <c r="C65" t="s" s="6">
+        <v>288</v>
+      </c>
+      <c r="D65" t="s" s="6">
+        <v>289</v>
+      </c>
+      <c r="E65" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s" s="6">
+        <v>290</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" ht="32.35" customHeight="1">
+      <c r="A66" t="s" s="6">
+        <v>291</v>
+      </c>
+      <c r="B66" t="s" s="6">
+        <v>292</v>
+      </c>
+      <c r="C66" t="s" s="6">
+        <v>293</v>
+      </c>
+      <c r="D66" t="s" s="6">
+        <v>294</v>
+      </c>
+      <c r="E66" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" ht="20.35" customHeight="1">
+      <c r="A67" t="s" s="6">
+        <v>295</v>
+      </c>
+      <c r="B67" t="s" s="6">
+        <v>296</v>
+      </c>
+      <c r="C67" t="s" s="6">
+        <v>297</v>
+      </c>
+      <c r="D67" t="s" s="6">
+        <v>298</v>
+      </c>
+      <c r="E67" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" ht="20.35" customHeight="1">
+      <c r="A68" t="s" s="6">
+        <v>299</v>
+      </c>
+      <c r="B68" t="s" s="6">
+        <v>300</v>
+      </c>
+      <c r="C68" t="s" s="6">
+        <v>301</v>
+      </c>
+      <c r="D68" t="s" s="6">
+        <v>302</v>
+      </c>
+      <c r="E68" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s" s="6">
+        <v>303</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" ht="20.35" customHeight="1">
+      <c r="A69" t="s" s="6">
+        <v>304</v>
+      </c>
+      <c r="B69" t="s" s="6">
+        <v>305</v>
+      </c>
+      <c r="C69" t="s" s="6">
+        <v>306</v>
+      </c>
+      <c r="D69" t="s" s="6">
+        <v>307</v>
+      </c>
+      <c r="E69" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" ht="20.35" customHeight="1">
+      <c r="A70" t="s" s="6">
+        <v>308</v>
+      </c>
+      <c r="B70" t="s" s="6">
+        <v>309</v>
+      </c>
+      <c r="C70" t="s" s="6">
+        <v>310</v>
+      </c>
+      <c r="D70" t="s" s="6">
+        <v>311</v>
+      </c>
+      <c r="E70" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s" s="6">
+        <v>312</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" ht="20.35" customHeight="1">
+      <c r="A71" t="s" s="6">
+        <v>313</v>
+      </c>
+      <c r="B71" t="s" s="6">
+        <v>314</v>
+      </c>
+      <c r="C71" t="s" s="6">
+        <v>315</v>
+      </c>
+      <c r="D71" t="s" s="6">
+        <v>316</v>
+      </c>
+      <c r="E71" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" ht="32.35" customHeight="1">
+      <c r="A72" t="s" s="6">
+        <v>317</v>
+      </c>
+      <c r="B72" t="s" s="6">
+        <v>318</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>319</v>
+      </c>
+      <c r="D72" t="s" s="6">
+        <v>320</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" ht="20.35" customHeight="1">
+      <c r="A73" t="s" s="6">
+        <v>321</v>
+      </c>
+      <c r="B73" t="s" s="6">
+        <v>322</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>323</v>
+      </c>
+      <c r="D73" t="s" s="6">
+        <v>324</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>325</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" ht="20.35" customHeight="1">
+      <c r="A74" t="s" s="6">
+        <v>326</v>
+      </c>
+      <c r="B74" t="s" s="6">
+        <v>327</v>
+      </c>
+      <c r="C74" t="s" s="6">
+        <v>328</v>
+      </c>
+      <c r="D74" t="s" s="6">
+        <v>329</v>
+      </c>
+      <c r="E74" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>330</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" ht="20.35" customHeight="1">
+      <c r="A75" t="s" s="6">
+        <v>331</v>
+      </c>
+      <c r="B75" t="s" s="6">
+        <v>332</v>
+      </c>
+      <c r="C75" t="s" s="6">
+        <v>333</v>
+      </c>
+      <c r="D75" t="s" s="6">
+        <v>334</v>
+      </c>
+      <c r="E75" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F75" t="s" s="6">
+        <v>335</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" ht="32.35" customHeight="1">
+      <c r="A76" t="s" s="6">
+        <v>336</v>
+      </c>
+      <c r="B76" t="s" s="6">
+        <v>337</v>
+      </c>
+      <c r="C76" t="s" s="6">
+        <v>338</v>
+      </c>
+      <c r="D76" t="s" s="6">
+        <v>339</v>
+      </c>
+      <c r="E76" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" ht="20.35" customHeight="1">
+      <c r="A77" t="s" s="6">
+        <v>340</v>
+      </c>
+      <c r="B77" t="s" s="6">
+        <v>341</v>
+      </c>
+      <c r="C77" t="s" s="6">
+        <v>342</v>
+      </c>
+      <c r="D77" t="s" s="6">
+        <v>343</v>
+      </c>
+      <c r="E77" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" ht="32.35" customHeight="1">
+      <c r="A78" t="s" s="6">
+        <v>344</v>
+      </c>
+      <c r="B78" t="s" s="6">
+        <v>345</v>
+      </c>
+      <c r="C78" t="s" s="6">
+        <v>346</v>
+      </c>
+      <c r="D78" t="s" s="6">
+        <v>347</v>
+      </c>
+      <c r="E78" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" ht="32.35" customHeight="1">
+      <c r="A79" t="s" s="6">
+        <v>348</v>
+      </c>
+      <c r="B79" t="s" s="6">
+        <v>349</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>350</v>
+      </c>
+      <c r="D79" t="s" s="6">
+        <v>351</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" ht="20.35" customHeight="1">
+      <c r="A80" t="s" s="6">
+        <v>352</v>
+      </c>
+      <c r="B80" s="8">
+        <v>42</v>
+      </c>
+      <c r="C80" t="s" s="6">
+        <v>353</v>
+      </c>
+      <c r="D80" t="s" s="6">
+        <v>354</v>
+      </c>
+      <c r="E80" t="s" s="6">
+        <v>355</v>
+      </c>
+      <c r="F80" t="s" s="6">
+        <v>356</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" ht="20.35" customHeight="1">
+      <c r="A81" t="s" s="6">
+        <v>357</v>
+      </c>
+      <c r="B81" t="s" s="6">
+        <v>358</v>
+      </c>
+      <c r="C81" t="s" s="6">
+        <v>359</v>
+      </c>
+      <c r="D81" t="s" s="6">
+        <v>360</v>
+      </c>
+      <c r="E81" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" ht="20.35" customHeight="1">
+      <c r="A82" t="s" s="6">
+        <v>361</v>
+      </c>
+      <c r="B82" t="s" s="6">
+        <v>362</v>
+      </c>
+      <c r="C82" t="s" s="6">
+        <v>359</v>
+      </c>
+      <c r="D82" t="s" s="6">
+        <v>363</v>
+      </c>
+      <c r="E82" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" ht="32.35" customHeight="1">
+      <c r="A83" t="s" s="6">
+        <v>364</v>
+      </c>
+      <c r="B83" t="s" s="6">
+        <v>365</v>
+      </c>
+      <c r="C83" t="s" s="6">
+        <v>366</v>
+      </c>
+      <c r="D83" t="s" s="6">
+        <v>367</v>
+      </c>
+      <c r="E83" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" ht="20.35" customHeight="1">
+      <c r="A84" t="s" s="6">
+        <v>368</v>
+      </c>
+      <c r="B84" t="s" s="6">
+        <v>369</v>
+      </c>
+      <c r="C84" t="s" s="6">
+        <v>370</v>
+      </c>
+      <c r="D84" t="s" s="6">
+        <v>371</v>
+      </c>
+      <c r="E84" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F84" t="s" s="6">
+        <v>372</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+    </row>
+    <row r="85" ht="20.35" customHeight="1">
+      <c r="A85" t="s" s="6">
+        <v>373</v>
+      </c>
+      <c r="B85" t="s" s="6">
+        <v>369</v>
+      </c>
+      <c r="C85" t="s" s="6">
+        <v>374</v>
+      </c>
+      <c r="D85" t="s" s="6">
+        <v>375</v>
+      </c>
+      <c r="E85" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="F85" t="s" s="6">
+        <v>372</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
